--- a/domain-policies-results.xlsx
+++ b/domain-policies-results.xlsx
@@ -1,17 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/david/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E320E31E-846C-3142-86D0-20A0E0F00128}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28100" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1 - politicas-results-2" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1 - politicas-results-2" sheetId="1" r:id="rId1"/>
+    <sheet name="Metricas" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hoja 1 - politicas-results-2'!$A$2:$G$118</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="408">
   <si>
     <t>politicas-results-2</t>
   </si>
@@ -39,8 +63,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -54,7 +78,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -71,8 +95,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -83,8 +107,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -95,7 +119,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -112,8 +136,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -124,7 +148,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -141,7 +165,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -152,8 +176,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -164,7 +188,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -181,8 +205,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -193,7 +217,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -210,7 +234,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -221,8 +245,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -233,7 +257,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -250,8 +274,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -262,7 +286,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -273,8 +297,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -285,8 +309,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -297,7 +321,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -314,7 +338,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -334,7 +358,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -351,7 +375,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -362,8 +386,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -374,7 +398,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -391,8 +415,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -403,7 +427,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -420,8 +444,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -432,7 +456,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -449,7 +473,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -460,8 +484,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -472,7 +496,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -489,7 +513,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -506,7 +530,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -526,8 +550,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -538,7 +562,7 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
+        <b/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -547,8 +571,8 @@
     </r>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -559,8 +583,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -571,8 +595,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -583,7 +607,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -600,7 +624,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -614,8 +638,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -626,7 +650,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -643,8 +667,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -655,7 +679,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -672,8 +696,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -684,8 +708,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -696,7 +720,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -713,8 +737,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -725,7 +749,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -742,7 +766,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -753,8 +777,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -765,7 +789,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -782,7 +806,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -799,8 +823,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -811,7 +835,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -828,8 +852,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -840,7 +864,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -857,8 +881,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -869,7 +893,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -886,7 +910,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -897,8 +921,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -909,7 +933,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -926,8 +950,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -938,8 +962,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -950,7 +974,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -961,8 +985,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -973,8 +997,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -985,7 +1009,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1002,7 +1026,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1013,8 +1037,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1025,7 +1049,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1042,7 +1066,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1056,8 +1080,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1068,7 +1092,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1079,8 +1103,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1094,7 +1118,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1111,8 +1135,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1123,7 +1147,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1140,7 +1164,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1151,8 +1175,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1163,7 +1187,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1180,7 +1204,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1197,8 +1221,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1209,7 +1233,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1220,8 +1244,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1232,7 +1256,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1254,7 +1278,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1273,8 +1297,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1285,7 +1309,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1296,8 +1320,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1308,7 +1332,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1325,7 +1349,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1342,8 +1366,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1354,7 +1378,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1365,8 +1389,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1377,7 +1401,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1388,7 +1412,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1399,8 +1423,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1411,7 +1435,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1422,8 +1446,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1434,8 +1458,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1446,7 +1470,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1463,8 +1487,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1475,7 +1499,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1492,8 +1516,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1504,7 +1528,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1515,7 +1539,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1532,8 +1556,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1544,8 +1568,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1556,7 +1580,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1567,7 +1591,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1594,7 +1618,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1611,7 +1635,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1628,7 +1652,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1647,8 +1671,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1659,7 +1683,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1676,8 +1700,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1688,7 +1712,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1699,7 +1723,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1716,8 +1740,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1728,7 +1752,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1750,7 +1774,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1769,7 +1793,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1780,8 +1804,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1792,7 +1816,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1803,7 +1827,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1830,7 +1854,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1849,8 +1873,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1861,8 +1885,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1873,8 +1897,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1885,7 +1909,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1902,8 +1926,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1914,8 +1938,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1926,7 +1950,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1943,7 +1967,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1957,8 +1981,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1969,7 +1993,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1986,7 +2010,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -1997,8 +2021,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2009,8 +2033,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2021,7 +2045,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2038,8 +2062,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2050,7 +2074,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2061,8 +2085,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2073,7 +2097,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2090,7 +2114,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2101,8 +2125,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2113,7 +2137,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2130,8 +2154,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2142,8 +2166,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2154,7 +2178,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2171,8 +2195,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2183,7 +2207,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2194,7 +2218,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2221,7 +2245,7 @@
     </r>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2240,8 +2264,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2252,8 +2276,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2264,7 +2288,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2281,8 +2305,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2293,8 +2317,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2305,7 +2329,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2322,8 +2346,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2334,8 +2358,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2346,7 +2370,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2363,8 +2387,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2375,7 +2399,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2386,8 +2410,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2398,7 +2422,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2415,8 +2439,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2427,7 +2451,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2438,8 +2462,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2450,8 +2474,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2462,7 +2486,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2479,8 +2503,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2491,7 +2515,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2508,7 +2532,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2519,8 +2543,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2531,8 +2555,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2543,7 +2567,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2554,8 +2578,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2566,7 +2590,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2577,7 +2601,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2594,8 +2618,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2606,8 +2630,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2618,7 +2642,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2629,8 +2653,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2641,7 +2665,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2655,7 +2679,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2666,8 +2690,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2678,8 +2702,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2690,7 +2714,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2707,7 +2731,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2724,8 +2748,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2736,7 +2760,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2747,8 +2771,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2759,7 +2783,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2776,8 +2800,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2788,8 +2812,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2800,7 +2824,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2817,8 +2841,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2829,7 +2853,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2846,8 +2870,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2858,7 +2882,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2875,8 +2899,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2887,8 +2911,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2899,7 +2923,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2916,8 +2940,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2928,7 +2952,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2939,7 +2963,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2956,8 +2980,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2968,7 +2992,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2979,7 +3003,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -2996,8 +3020,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3008,7 +3032,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3025,7 +3049,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3042,8 +3066,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3054,7 +3078,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3065,8 +3089,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3077,8 +3101,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3089,7 +3113,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3106,8 +3130,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3118,7 +3142,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3135,8 +3159,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3147,7 +3171,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3164,8 +3188,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3176,7 +3200,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3193,7 +3217,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3210,8 +3234,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3222,7 +3246,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3239,7 +3263,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3250,8 +3274,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3262,8 +3286,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3274,8 +3298,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3286,7 +3310,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3297,7 +3321,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3314,8 +3338,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3326,7 +3350,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3337,8 +3361,8 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3349,7 +3373,7 @@
   <si>
     <r>
       <rPr>
-        <u val="single"/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
@@ -3360,24 +3384,51 @@
   <si>
     <r>
       <rPr>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
       </rPr>
       <t>dns.google</t>
     </r>
+  </si>
+  <si>
+    <t>Google Search</t>
+  </si>
+  <si>
+    <t>TP</t>
+  </si>
+  <si>
+    <t>FP</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
+  </si>
+  <si>
+    <t>F1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3389,20 +3440,20 @@
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <b val="1"/>
-      <u val="single"/>
+      <b/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -3555,89 +3606,176 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF88F94E"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF88F94E"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF88F94E"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF88F94E"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ff88f94e"/>
-      <rgbColor rgb="ffed220b"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FF88F94E"/>
+      <rgbColor rgb="FFED220B"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -3836,7 +3974,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3855,7 +3993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3885,7 +4023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3911,7 +4049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3937,7 +4075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3963,7 +4101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3989,7 +4127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4015,7 +4153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4041,7 +4179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4067,7 +4205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4093,7 +4231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4106,9 +4244,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -4125,7 +4269,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4144,7 +4288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4170,7 +4314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4196,7 +4340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4222,7 +4366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4248,7 +4392,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4274,7 +4418,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4300,7 +4444,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4326,7 +4470,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4352,7 +4496,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4378,7 +4522,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4391,9 +4535,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -4407,7 +4557,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -4426,7 +4576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4456,7 +4606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4482,7 +4632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4508,7 +4658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4534,7 +4684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4560,7 +4710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4586,7 +4736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4612,7 +4762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4638,7 +4788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4664,7 +4814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4677,2548 +4827,2674 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G118"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C106" sqref="C106"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="45.1719" style="1" customWidth="1"/>
-    <col min="3" max="4" width="29.7109" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.0234" style="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="45.1640625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="29.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59" style="1" customWidth="1"/>
     <col min="6" max="6" width="32.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.3984" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.35156" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="3">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" t="s" s="4">
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="F22" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="F23" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="F24" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>315</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+    </row>
+    <row r="36" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+    </row>
+    <row r="37" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+    </row>
+    <row r="38" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+    </row>
+    <row r="43" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s" s="5">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" t="s" s="7">
+      <c r="B43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F3" t="s" s="8">
+      <c r="F43" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s" s="7">
+      <c r="G43" s="10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="9">
+    <row r="44" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
+      <c r="E46" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
+      <c r="E53" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
+      <c r="E54" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="F55" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>327</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>331</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D69" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="E69" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G70" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="G72" s="10" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="G73" s="10" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D74" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="G74" s="10" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="9">
+      <c r="B76" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B5" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" t="s" s="13">
+      <c r="B77" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s" s="12">
+      <c r="F77" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s" s="12">
+      <c r="G77" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s" s="14">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s" s="13">
-        <v>22</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="9">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>24</v>
-      </c>
-      <c r="F7" t="s" s="14">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s" s="12">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="B8" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="F8" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="G8" t="s" s="12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="B9" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" t="s" s="12">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s" s="12">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="9">
-        <v>36</v>
-      </c>
-      <c r="B10" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="C10" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F10" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G10" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="9">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F11" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G11" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s" s="14">
-        <v>41</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>43</v>
-      </c>
-      <c r="F12" t="s" s="14">
-        <v>44</v>
-      </c>
-      <c r="G12" t="s" s="12">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="9">
-        <v>46</v>
-      </c>
-      <c r="B13" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="C13" t="s" s="14">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s" s="13">
-        <v>50</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s" s="14">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>52</v>
-      </c>
-      <c r="F14" t="s" s="14">
-        <v>53</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="B15" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="F15" t="s" s="14">
-        <v>57</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="9">
+    <row r="78" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B16" t="s" s="10">
+      <c r="B78" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C16" t="s" s="13">
+      <c r="C78" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D16" t="s" s="12">
+      <c r="D78" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="E16" t="s" s="13">
+      <c r="E78" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="9">
-        <v>64</v>
-      </c>
-      <c r="B17" t="s" s="10">
-        <v>65</v>
-      </c>
-      <c r="C17" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="D17" t="s" s="12">
-        <v>67</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <v>68</v>
-      </c>
-      <c r="F17" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="G17" t="s" s="12">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="9">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="C18" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="E18" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s" s="12">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="9">
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B19" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="9">
+      <c r="B79" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B20" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="9">
+      <c r="B80" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B21" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="9">
+      <c r="B81" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B22" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="9">
-        <v>78</v>
-      </c>
-      <c r="B23" t="s" s="10">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s" s="14">
-        <v>80</v>
-      </c>
-      <c r="D23" t="s" s="12">
-        <v>81</v>
-      </c>
-      <c r="E23" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="F23" t="s" s="14">
-        <v>80</v>
-      </c>
-      <c r="G23" t="s" s="12">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="9">
+      <c r="B82" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B24" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" t="s" s="13">
+      <c r="B83" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F24" t="s" s="12">
+      <c r="F83" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="G24" t="s" s="12">
+      <c r="G83" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="9">
-        <v>88</v>
-      </c>
-      <c r="B25" t="s" s="10">
-        <v>89</v>
-      </c>
-      <c r="C25" t="s" s="14">
-        <v>90</v>
-      </c>
-      <c r="D25" t="s" s="12">
-        <v>91</v>
-      </c>
-      <c r="E25" t="s" s="12">
-        <v>89</v>
-      </c>
-      <c r="F25" t="s" s="14">
-        <v>90</v>
-      </c>
-      <c r="G25" t="s" s="12">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="9">
-        <v>92</v>
-      </c>
-      <c r="B26" t="s" s="10">
-        <v>71</v>
-      </c>
-      <c r="C26" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="D26" t="s" s="12">
-        <v>73</v>
-      </c>
-      <c r="E26" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="F26" t="s" s="14">
-        <v>72</v>
-      </c>
-      <c r="G26" t="s" s="12">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="9">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="C27" t="s" s="14">
-        <v>95</v>
-      </c>
-      <c r="D27" t="s" s="12">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="9">
-        <v>97</v>
-      </c>
-      <c r="B28" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="C28" t="s" s="14">
-        <v>99</v>
-      </c>
-      <c r="D28" t="s" s="12">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s" s="12">
-        <v>101</v>
-      </c>
-      <c r="F28" t="s" s="14">
-        <v>99</v>
-      </c>
-      <c r="G28" t="s" s="12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="9">
-        <v>102</v>
-      </c>
-      <c r="B29" t="s" s="10">
-        <v>103</v>
-      </c>
-      <c r="C29" t="s" s="14">
-        <v>104</v>
-      </c>
-      <c r="D29" t="s" s="12">
-        <v>105</v>
-      </c>
-      <c r="E29" t="s" s="12">
-        <v>106</v>
-      </c>
-      <c r="F29" t="s" s="14">
-        <v>107</v>
-      </c>
-      <c r="G29" t="s" s="12">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="9">
+    <row r="84" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B30" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" t="s" s="12">
+      <c r="B84" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="F30" t="s" s="13">
+      <c r="F84" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="G30" t="s" s="12">
+      <c r="G84" s="10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="9">
-        <v>113</v>
-      </c>
-      <c r="B31" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" t="s" s="12">
-        <v>114</v>
-      </c>
-      <c r="F31" t="s" s="14">
-        <v>115</v>
-      </c>
-      <c r="G31" t="s" s="12">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="9">
-        <v>117</v>
-      </c>
-      <c r="B32" t="s" s="10">
-        <v>118</v>
-      </c>
-      <c r="C32" t="s" s="14">
-        <v>119</v>
-      </c>
-      <c r="D32" t="s" s="12">
-        <v>120</v>
-      </c>
-      <c r="E32" t="s" s="13">
-        <v>121</v>
-      </c>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="9">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s" s="10">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s" s="14">
-        <v>124</v>
-      </c>
-      <c r="D33" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="E33" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="9">
+    <row r="85" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B34" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="9">
+      <c r="B85" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B35" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" t="s" s="13">
+      <c r="B86" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="9">
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B36" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="9">
-        <v>130</v>
-      </c>
-      <c r="B37" t="s" s="10">
-        <v>131</v>
-      </c>
-      <c r="C37" t="s" s="14">
-        <v>132</v>
-      </c>
-      <c r="D37" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="E37" t="s" s="12">
-        <v>134</v>
-      </c>
-      <c r="F37" t="s" s="14">
-        <v>132</v>
-      </c>
-      <c r="G37" t="s" s="12">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="9">
-        <v>135</v>
-      </c>
-      <c r="B38" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="C38" t="s" s="14">
-        <v>137</v>
-      </c>
-      <c r="D38" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="E38" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="F38" t="s" s="14">
-        <v>137</v>
-      </c>
-      <c r="G38" t="s" s="12">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="9">
+      <c r="B87" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B39" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" t="s" s="13">
+      <c r="B88" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-    </row>
-    <row r="40" ht="20.05" customHeight="1">
-      <c r="A40" t="s" s="9">
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B40" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-    </row>
-    <row r="41" ht="20.05" customHeight="1">
-      <c r="A41" t="s" s="9">
-        <v>144</v>
-      </c>
-      <c r="B41" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" t="s" s="12">
-        <v>145</v>
-      </c>
-      <c r="F41" t="s" s="14">
-        <v>146</v>
-      </c>
-      <c r="G41" t="s" s="12">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" ht="20.05" customHeight="1">
-      <c r="A42" t="s" s="9">
-        <v>148</v>
-      </c>
-      <c r="B42" t="s" s="10">
-        <v>149</v>
-      </c>
-      <c r="C42" t="s" s="14">
-        <v>150</v>
-      </c>
-      <c r="D42" t="s" s="12">
-        <v>151</v>
-      </c>
-      <c r="E42" t="s" s="12">
-        <v>152</v>
-      </c>
-      <c r="F42" t="s" s="14">
-        <v>150</v>
-      </c>
-      <c r="G42" t="s" s="12">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="43" ht="20.05" customHeight="1">
-      <c r="A43" t="s" s="9">
-        <v>153</v>
-      </c>
-      <c r="B43" t="s" s="10">
-        <v>154</v>
-      </c>
-      <c r="C43" t="s" s="14">
-        <v>155</v>
-      </c>
-      <c r="D43" t="s" s="12">
-        <v>156</v>
-      </c>
-      <c r="E43" t="s" s="12">
-        <v>157</v>
-      </c>
-      <c r="F43" t="s" s="14">
-        <v>158</v>
-      </c>
-      <c r="G43" t="s" s="12">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="44" ht="20.05" customHeight="1">
-      <c r="A44" t="s" s="9">
+      <c r="B89" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B44" t="s" s="15">
+      <c r="B90" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F44" s="11"/>
-      <c r="G44" s="11"/>
-    </row>
-    <row r="45" ht="20.05" customHeight="1">
-      <c r="A45" t="s" s="9">
-        <v>162</v>
-      </c>
-      <c r="B45" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" t="s" s="12">
-        <v>163</v>
-      </c>
-      <c r="F45" t="s" s="14">
-        <v>164</v>
-      </c>
-      <c r="G45" t="s" s="12">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="46" ht="20.05" customHeight="1">
-      <c r="A46" t="s" s="9">
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="B46" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" t="s" s="13">
+      <c r="B91" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="F46" s="11"/>
-      <c r="G46" s="11"/>
-    </row>
-    <row r="47" ht="20.05" customHeight="1">
-      <c r="A47" t="s" s="9">
-        <v>168</v>
-      </c>
-      <c r="B47" t="s" s="10">
-        <v>169</v>
-      </c>
-      <c r="C47" t="s" s="13">
-        <v>170</v>
-      </c>
-      <c r="D47" t="s" s="12">
-        <v>171</v>
-      </c>
-      <c r="E47" t="s" s="12">
-        <v>172</v>
-      </c>
-      <c r="F47" t="s" s="14">
-        <v>173</v>
-      </c>
-      <c r="G47" t="s" s="12">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="48" ht="20.05" customHeight="1">
-      <c r="A48" t="s" s="9">
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="B48" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" t="s" s="13">
+      <c r="B92" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-    </row>
-    <row r="49" ht="20.05" customHeight="1">
-      <c r="A49" t="s" s="9">
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="B49" t="s" s="15">
+      <c r="B93" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" t="s" s="13">
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="F49" s="11"/>
-      <c r="G49" s="11"/>
-    </row>
-    <row r="50" ht="20.05" customHeight="1">
-      <c r="A50" t="s" s="9">
-        <v>180</v>
-      </c>
-      <c r="B50" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" t="s" s="12">
-        <v>181</v>
-      </c>
-      <c r="F50" t="s" s="14">
-        <v>66</v>
-      </c>
-      <c r="G50" t="s" s="12">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" ht="20.05" customHeight="1">
-      <c r="A51" t="s" s="9">
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="B51" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F51" s="11"/>
-      <c r="G51" s="11"/>
-    </row>
-    <row r="52" ht="20.05" customHeight="1">
-      <c r="A52" t="s" s="9">
-        <v>183</v>
-      </c>
-      <c r="B52" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" t="s" s="12">
-        <v>184</v>
-      </c>
-      <c r="F52" t="s" s="14">
-        <v>185</v>
-      </c>
-      <c r="G52" t="s" s="12">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" ht="20.05" customHeight="1">
-      <c r="A53" t="s" s="9">
-        <v>187</v>
-      </c>
-      <c r="B53" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" t="s" s="12">
-        <v>188</v>
-      </c>
-      <c r="F53" t="s" s="14">
-        <v>189</v>
-      </c>
-      <c r="G53" t="s" s="12">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="54" ht="20.05" customHeight="1">
-      <c r="A54" t="s" s="9">
-        <v>191</v>
-      </c>
-      <c r="B54" t="s" s="15">
-        <v>192</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" t="s" s="12">
-        <v>193</v>
-      </c>
-      <c r="F54" t="s" s="14">
-        <v>194</v>
-      </c>
-      <c r="G54" t="s" s="12">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" ht="20.05" customHeight="1">
-      <c r="A55" t="s" s="9">
+      <c r="B94" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="B55" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F55" s="11"/>
-      <c r="G55" s="11"/>
-    </row>
-    <row r="56" ht="20.05" customHeight="1">
-      <c r="A56" t="s" s="9">
-        <v>197</v>
-      </c>
-      <c r="B56" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" t="s" s="12">
-        <v>198</v>
-      </c>
-      <c r="F56" t="s" s="14">
-        <v>199</v>
-      </c>
-      <c r="G56" t="s" s="12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" ht="20.05" customHeight="1">
-      <c r="A57" t="s" s="9">
-        <v>201</v>
-      </c>
-      <c r="B57" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" t="s" s="13">
-        <v>202</v>
-      </c>
-      <c r="F57" t="s" s="14">
-        <v>203</v>
-      </c>
-      <c r="G57" t="s" s="12">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="58" ht="20.05" customHeight="1">
-      <c r="A58" t="s" s="9">
-        <v>205</v>
-      </c>
-      <c r="B58" t="s" s="15">
-        <v>206</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" t="s" s="12">
-        <v>207</v>
-      </c>
-      <c r="F58" t="s" s="14">
-        <v>208</v>
-      </c>
-      <c r="G58" t="s" s="12">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" ht="20.05" customHeight="1">
-      <c r="A59" t="s" s="9">
-        <v>210</v>
-      </c>
-      <c r="B59" t="s" s="10">
-        <v>211</v>
-      </c>
-      <c r="C59" t="s" s="14">
-        <v>212</v>
-      </c>
-      <c r="D59" t="s" s="12">
-        <v>213</v>
-      </c>
-      <c r="E59" t="s" s="13">
-        <v>214</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="11"/>
-    </row>
-    <row r="60" ht="20.05" customHeight="1">
-      <c r="A60" t="s" s="9">
-        <v>215</v>
-      </c>
-      <c r="B60" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" t="s" s="13">
-        <v>216</v>
-      </c>
-      <c r="F60" t="s" s="14">
-        <v>217</v>
-      </c>
-      <c r="G60" t="s" s="12">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="61" ht="20.05" customHeight="1">
-      <c r="A61" t="s" s="9">
+      <c r="B95" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B61" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
-    </row>
-    <row r="62" ht="20.05" customHeight="1">
-      <c r="A62" t="s" s="9">
-        <v>220</v>
-      </c>
-      <c r="B62" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="C62" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="D62" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="E62" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F62" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="63" ht="20.05" customHeight="1">
-      <c r="A63" t="s" s="9">
-        <v>221</v>
-      </c>
-      <c r="B63" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" t="s" s="12">
-        <v>222</v>
-      </c>
-      <c r="F63" t="s" s="14">
-        <v>223</v>
-      </c>
-      <c r="G63" t="s" s="12">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" ht="20.05" customHeight="1">
-      <c r="A64" t="s" s="9">
+      <c r="B96" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="B64" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F64" s="11"/>
-      <c r="G64" s="11"/>
-    </row>
-    <row r="65" ht="20.05" customHeight="1">
-      <c r="A65" t="s" s="9">
-        <v>226</v>
-      </c>
-      <c r="B65" t="s" s="10">
-        <v>227</v>
-      </c>
-      <c r="C65" t="s" s="14">
-        <v>228</v>
-      </c>
-      <c r="D65" t="s" s="12">
-        <v>229</v>
-      </c>
-      <c r="E65" t="s" s="12">
-        <v>230</v>
-      </c>
-      <c r="F65" t="s" s="14">
-        <v>228</v>
-      </c>
-      <c r="G65" t="s" s="12">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="66" ht="20.05" customHeight="1">
-      <c r="A66" t="s" s="9">
-        <v>232</v>
-      </c>
-      <c r="B66" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="C66" t="s" s="14">
-        <v>234</v>
-      </c>
-      <c r="D66" t="s" s="12">
-        <v>235</v>
-      </c>
-      <c r="E66" t="s" s="12">
-        <v>236</v>
-      </c>
-      <c r="F66" t="s" s="14">
-        <v>234</v>
-      </c>
-      <c r="G66" t="s" s="12">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" ht="20.05" customHeight="1">
-      <c r="A67" t="s" s="9">
+      <c r="B97" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B67" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="11"/>
-    </row>
-    <row r="68" ht="20.05" customHeight="1">
-      <c r="A68" t="s" s="9">
+      <c r="B98" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F98" s="9"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="B68" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" t="s" s="12">
+      <c r="B99" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="F68" t="s" s="13">
+      <c r="F99" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="G68" t="s" s="12">
+      <c r="G99" s="10" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="69" ht="20.05" customHeight="1">
-      <c r="A69" t="s" s="9">
+    <row r="100" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="B69" t="s" s="15">
+      <c r="B100" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F69" s="11"/>
-      <c r="G69" s="11"/>
-    </row>
-    <row r="70" ht="20.05" customHeight="1">
-      <c r="A70" t="s" s="9">
-        <v>244</v>
-      </c>
-      <c r="B70" t="s" s="10">
-        <v>245</v>
-      </c>
-      <c r="C70" t="s" s="14">
-        <v>246</v>
-      </c>
-      <c r="D70" t="s" s="12">
-        <v>247</v>
-      </c>
-      <c r="E70" t="s" s="12">
-        <v>248</v>
-      </c>
-      <c r="F70" t="s" s="14">
-        <v>246</v>
-      </c>
-      <c r="G70" t="s" s="12">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="71" ht="20.05" customHeight="1">
-      <c r="A71" t="s" s="9">
-        <v>249</v>
-      </c>
-      <c r="B71" t="s" s="10">
-        <v>250</v>
-      </c>
-      <c r="C71" t="s" s="14">
-        <v>251</v>
-      </c>
-      <c r="D71" t="s" s="12">
-        <v>252</v>
-      </c>
-      <c r="E71" t="s" s="12">
-        <v>250</v>
-      </c>
-      <c r="F71" t="s" s="14">
-        <v>251</v>
-      </c>
-      <c r="G71" t="s" s="12">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="72" ht="20.05" customHeight="1">
-      <c r="A72" t="s" s="9">
-        <v>253</v>
-      </c>
-      <c r="B72" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F72" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G72" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="73" ht="20.05" customHeight="1">
-      <c r="A73" t="s" s="9">
-        <v>254</v>
-      </c>
-      <c r="B73" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" t="s" s="12">
-        <v>255</v>
-      </c>
-      <c r="F73" t="s" s="14">
-        <v>256</v>
-      </c>
-      <c r="G73" t="s" s="12">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" ht="20.05" customHeight="1">
-      <c r="A74" t="s" s="9">
-        <v>258</v>
-      </c>
-      <c r="B74" t="s" s="10">
-        <v>259</v>
-      </c>
-      <c r="C74" t="s" s="14">
-        <v>260</v>
-      </c>
-      <c r="D74" t="s" s="12">
-        <v>261</v>
-      </c>
-      <c r="E74" t="s" s="12">
-        <v>259</v>
-      </c>
-      <c r="F74" t="s" s="14">
-        <v>260</v>
-      </c>
-      <c r="G74" t="s" s="12">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="75" ht="20.05" customHeight="1">
-      <c r="A75" t="s" s="9">
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F100" s="9"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="B75" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F75" s="11"/>
-      <c r="G75" s="11"/>
-    </row>
-    <row r="76" ht="20.05" customHeight="1">
-      <c r="A76" t="s" s="9">
-        <v>263</v>
-      </c>
-      <c r="B76" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" t="s" s="12">
-        <v>264</v>
-      </c>
-      <c r="F76" t="s" s="14">
-        <v>265</v>
-      </c>
-      <c r="G76" t="s" s="12">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="77" ht="20.05" customHeight="1">
-      <c r="A77" t="s" s="9">
+      <c r="B101" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F101" s="9"/>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="B77" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F77" s="11"/>
-      <c r="G77" s="11"/>
-    </row>
-    <row r="78" ht="20.05" customHeight="1">
-      <c r="A78" t="s" s="9">
-        <v>268</v>
-      </c>
-      <c r="B78" t="s" s="15">
-        <v>269</v>
-      </c>
-      <c r="C78" t="s" s="14">
-        <v>270</v>
-      </c>
-      <c r="D78" t="s" s="12">
-        <v>271</v>
-      </c>
-      <c r="E78" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F78" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G78" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" ht="20.05" customHeight="1">
-      <c r="A79" t="s" s="9">
+      <c r="B102" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102" s="9"/>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B79" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F79" s="11"/>
-      <c r="G79" s="11"/>
-    </row>
-    <row r="80" ht="20.05" customHeight="1">
-      <c r="A80" t="s" s="9">
-        <v>273</v>
-      </c>
-      <c r="B80" t="s" s="10">
-        <v>274</v>
-      </c>
-      <c r="C80" t="s" s="14">
-        <v>275</v>
-      </c>
-      <c r="D80" t="s" s="12">
-        <v>276</v>
-      </c>
-      <c r="E80" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F80" s="11"/>
-      <c r="G80" s="11"/>
-    </row>
-    <row r="81" ht="20.05" customHeight="1">
-      <c r="A81" t="s" s="9">
-        <v>277</v>
-      </c>
-      <c r="B81" t="s" s="10">
-        <v>274</v>
-      </c>
-      <c r="C81" t="s" s="14">
-        <v>275</v>
-      </c>
-      <c r="D81" t="s" s="12">
-        <v>276</v>
-      </c>
-      <c r="E81" t="s" s="12">
-        <v>278</v>
-      </c>
-      <c r="F81" t="s" s="14">
-        <v>275</v>
-      </c>
-      <c r="G81" t="s" s="12">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" ht="20.05" customHeight="1">
-      <c r="A82" t="s" s="9">
-        <v>279</v>
-      </c>
-      <c r="B82" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" t="s" s="12">
-        <v>280</v>
-      </c>
-      <c r="F82" t="s" s="14">
-        <v>281</v>
-      </c>
-      <c r="G82" t="s" s="12">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="83" ht="20.05" customHeight="1">
-      <c r="A83" t="s" s="9">
+      <c r="B103" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F103" s="9"/>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B83" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" t="s" s="13">
+      <c r="B104" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="F83" s="11"/>
-      <c r="G83" s="11"/>
-    </row>
-    <row r="84" ht="20.05" customHeight="1">
-      <c r="A84" t="s" s="9">
+      <c r="F104" s="9"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B84" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="11"/>
-    </row>
-    <row r="85" ht="20.05" customHeight="1">
-      <c r="A85" t="s" s="9">
-        <v>286</v>
-      </c>
-      <c r="B85" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" t="s" s="12">
-        <v>287</v>
-      </c>
-      <c r="F85" t="s" s="14">
-        <v>288</v>
-      </c>
-      <c r="G85" t="s" s="12">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="86" ht="20.05" customHeight="1">
-      <c r="A86" t="s" s="9">
+      <c r="B105" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F105" s="9"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="B86" t="s" s="15">
+      <c r="B106" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="C86" t="s" s="12">
+      <c r="C106" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="D86" t="s" s="12">
+      <c r="D106" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="E86" t="s" s="13">
+      <c r="E106" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="F86" s="11"/>
-      <c r="G86" s="11"/>
-    </row>
-    <row r="87" ht="20.05" customHeight="1">
-      <c r="A87" t="s" s="9">
+      <c r="F106" s="9"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="B87" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F87" s="11"/>
-      <c r="G87" s="11"/>
-    </row>
-    <row r="88" ht="20.05" customHeight="1">
-      <c r="A88" t="s" s="9">
+      <c r="B107" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F107" s="9"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B88" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" t="s" s="13">
+      <c r="B108" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="F88" s="11"/>
-      <c r="G88" s="11"/>
-    </row>
-    <row r="89" ht="20.05" customHeight="1">
-      <c r="A89" t="s" s="9">
-        <v>298</v>
-      </c>
-      <c r="B89" t="s" s="15">
-        <v>299</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" t="s" s="12">
-        <v>300</v>
-      </c>
-      <c r="F89" t="s" s="14">
-        <v>301</v>
-      </c>
-      <c r="G89" t="s" s="12">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="90" ht="20.05" customHeight="1">
-      <c r="A90" t="s" s="9">
-        <v>303</v>
-      </c>
-      <c r="B90" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" t="s" s="12">
-        <v>280</v>
-      </c>
-      <c r="F90" t="s" s="14">
-        <v>281</v>
-      </c>
-      <c r="G90" t="s" s="12">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="91" ht="20.05" customHeight="1">
-      <c r="A91" t="s" s="9">
+      <c r="F108" s="9"/>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B91" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" t="s" s="13">
+      <c r="B109" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F91" s="11"/>
-      <c r="G91" s="11"/>
-    </row>
-    <row r="92" ht="20.05" customHeight="1">
-      <c r="A92" t="s" s="9">
-        <v>306</v>
-      </c>
-      <c r="B92" t="s" s="10">
-        <v>307</v>
-      </c>
-      <c r="C92" t="s" s="14">
-        <v>288</v>
-      </c>
-      <c r="D92" t="s" s="12">
-        <v>308</v>
-      </c>
-      <c r="E92" t="s" s="12">
-        <v>309</v>
-      </c>
-      <c r="F92" t="s" s="14">
-        <v>288</v>
-      </c>
-      <c r="G92" t="s" s="12">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="93" ht="20.05" customHeight="1">
-      <c r="A93" t="s" s="9">
+      <c r="F109" s="9"/>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B93" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F93" s="11"/>
-      <c r="G93" s="11"/>
-    </row>
-    <row r="94" ht="20.05" customHeight="1">
-      <c r="A94" t="s" s="9">
-        <v>311</v>
-      </c>
-      <c r="B94" t="s" s="10">
-        <v>312</v>
-      </c>
-      <c r="C94" t="s" s="14">
-        <v>313</v>
-      </c>
-      <c r="D94" t="s" s="12">
-        <v>314</v>
-      </c>
-      <c r="E94" t="s" s="12">
-        <v>315</v>
-      </c>
-      <c r="F94" t="s" s="14">
-        <v>316</v>
-      </c>
-      <c r="G94" t="s" s="12">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="95" ht="20.05" customHeight="1">
-      <c r="A95" t="s" s="9">
-        <v>318</v>
-      </c>
-      <c r="B95" t="s" s="15">
-        <v>319</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F95" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G95" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="96" ht="20.05" customHeight="1">
-      <c r="A96" t="s" s="9">
+      <c r="B110" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F110" s="9"/>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B96" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" t="s" s="13">
+      <c r="B111" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F96" t="s" s="12">
+      <c r="F111" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="G96" t="s" s="12">
+      <c r="G111" s="10" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="97" ht="20.05" customHeight="1">
-      <c r="A97" t="s" s="9">
+    <row r="112" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B97" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
-    </row>
-    <row r="98" ht="20.05" customHeight="1">
-      <c r="A98" t="s" s="9">
-        <v>325</v>
-      </c>
-      <c r="B98" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" t="s" s="12">
-        <v>326</v>
-      </c>
-      <c r="F98" t="s" s="14">
-        <v>327</v>
-      </c>
-      <c r="G98" t="s" s="12">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="99" ht="20.05" customHeight="1">
-      <c r="A99" t="s" s="9">
-        <v>329</v>
-      </c>
-      <c r="B99" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" t="s" s="12">
-        <v>330</v>
-      </c>
-      <c r="F99" t="s" s="14">
-        <v>331</v>
-      </c>
-      <c r="G99" t="s" s="12">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="100" ht="20.05" customHeight="1">
-      <c r="A100" t="s" s="9">
+      <c r="B112" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="9"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B100" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" t="s" s="12">
+      <c r="B113" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="F100" t="s" s="13">
+      <c r="F113" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="G100" t="s" s="12">
+      <c r="G113" s="10" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="101" ht="20.05" customHeight="1">
-      <c r="A101" t="s" s="9">
-        <v>337</v>
-      </c>
-      <c r="B101" t="s" s="15">
-        <v>269</v>
-      </c>
-      <c r="C101" t="s" s="12">
-        <v>270</v>
-      </c>
-      <c r="D101" t="s" s="12">
-        <v>271</v>
-      </c>
-      <c r="E101" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F101" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G101" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" ht="20.05" customHeight="1">
-      <c r="A102" t="s" s="9">
-        <v>338</v>
-      </c>
-      <c r="B102" t="s" s="10">
-        <v>339</v>
-      </c>
-      <c r="C102" t="s" s="14">
-        <v>340</v>
-      </c>
-      <c r="D102" t="s" s="12">
-        <v>341</v>
-      </c>
-      <c r="E102" t="s" s="12">
-        <v>339</v>
-      </c>
-      <c r="F102" t="s" s="14">
-        <v>340</v>
-      </c>
-      <c r="G102" t="s" s="12">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="103" ht="20.05" customHeight="1">
-      <c r="A103" t="s" s="9">
-        <v>342</v>
-      </c>
-      <c r="B103" t="s" s="10">
-        <v>343</v>
-      </c>
-      <c r="C103" t="s" s="14">
-        <v>340</v>
-      </c>
-      <c r="D103" t="s" s="12">
-        <v>341</v>
-      </c>
-      <c r="E103" t="s" s="12">
-        <v>344</v>
-      </c>
-      <c r="F103" t="s" s="14">
-        <v>345</v>
-      </c>
-      <c r="G103" t="s" s="12">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="104" ht="20.05" customHeight="1">
-      <c r="A104" t="s" s="9">
-        <v>347</v>
-      </c>
-      <c r="B104" t="s" s="15">
-        <v>348</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" t="s" s="12">
-        <v>349</v>
-      </c>
-      <c r="F104" t="s" s="14">
-        <v>350</v>
-      </c>
-      <c r="G104" t="s" s="12">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="105" ht="20.05" customHeight="1">
-      <c r="A105" t="s" s="9">
-        <v>352</v>
-      </c>
-      <c r="B105" t="s" s="10">
-        <v>353</v>
-      </c>
-      <c r="C105" t="s" s="14">
-        <v>354</v>
-      </c>
-      <c r="D105" t="s" s="12">
-        <v>355</v>
-      </c>
-      <c r="E105" t="s" s="12">
-        <v>356</v>
-      </c>
-      <c r="F105" t="s" s="14">
-        <v>357</v>
-      </c>
-      <c r="G105" t="s" s="12">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="106" ht="20.05" customHeight="1">
-      <c r="A106" t="s" s="9">
+    <row r="114" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="B106" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C106" s="11"/>
-      <c r="D106" s="11"/>
-      <c r="E106" t="s" s="13">
+      <c r="B114" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F106" s="11"/>
-      <c r="G106" s="11"/>
-    </row>
-    <row r="107" ht="20.05" customHeight="1">
-      <c r="A107" t="s" s="9">
-        <v>361</v>
-      </c>
-      <c r="B107" t="s" s="15">
-        <v>319</v>
-      </c>
-      <c r="C107" s="11"/>
-      <c r="D107" s="11"/>
-      <c r="E107" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="F107" t="s" s="14">
-        <v>16</v>
-      </c>
-      <c r="G107" t="s" s="12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="108" ht="20.05" customHeight="1">
-      <c r="A108" t="s" s="9">
-        <v>362</v>
-      </c>
-      <c r="B108" t="s" s="10">
-        <v>363</v>
-      </c>
-      <c r="C108" t="s" s="14">
-        <v>364</v>
-      </c>
-      <c r="D108" t="s" s="12">
-        <v>365</v>
-      </c>
-      <c r="E108" t="s" s="12">
-        <v>363</v>
-      </c>
-      <c r="F108" t="s" s="14">
-        <v>364</v>
-      </c>
-      <c r="G108" t="s" s="12">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="109" ht="20.05" customHeight="1">
-      <c r="A109" t="s" s="9">
-        <v>366</v>
-      </c>
-      <c r="B109" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" t="s" s="12">
-        <v>367</v>
-      </c>
-      <c r="F109" t="s" s="14">
-        <v>368</v>
-      </c>
-      <c r="G109" t="s" s="12">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="110" ht="20.05" customHeight="1">
-      <c r="A110" t="s" s="9">
-        <v>370</v>
-      </c>
-      <c r="B110" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11"/>
-      <c r="E110" t="s" s="12">
-        <v>371</v>
-      </c>
-      <c r="F110" t="s" s="14">
-        <v>372</v>
-      </c>
-      <c r="G110" t="s" s="12">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="111" ht="20.05" customHeight="1">
-      <c r="A111" t="s" s="9">
-        <v>374</v>
-      </c>
-      <c r="B111" t="s" s="15">
-        <v>375</v>
-      </c>
-      <c r="C111" t="s" s="12">
-        <v>376</v>
-      </c>
-      <c r="D111" t="s" s="12">
-        <v>377</v>
-      </c>
-      <c r="E111" t="s" s="12">
-        <v>378</v>
-      </c>
-      <c r="F111" t="s" s="14">
-        <v>379</v>
-      </c>
-      <c r="G111" t="s" s="12">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="112" ht="20.05" customHeight="1">
-      <c r="A112" t="s" s="9">
-        <v>381</v>
-      </c>
-      <c r="B112" t="s" s="10">
-        <v>382</v>
-      </c>
-      <c r="C112" t="s" s="14">
-        <v>383</v>
-      </c>
-      <c r="D112" t="s" s="12">
-        <v>384</v>
-      </c>
-      <c r="E112" t="s" s="12">
-        <v>385</v>
-      </c>
-      <c r="F112" t="s" s="14">
-        <v>383</v>
-      </c>
-      <c r="G112" t="s" s="12">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="113" ht="20.05" customHeight="1">
-      <c r="A113" t="s" s="9">
+      <c r="F114" s="9"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="B113" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11"/>
-      <c r="E113" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F113" s="11"/>
-      <c r="G113" s="11"/>
-    </row>
-    <row r="114" ht="20.05" customHeight="1">
-      <c r="A114" t="s" s="9">
+      <c r="B115" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F115" s="9"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="B114" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11"/>
-      <c r="E114" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F114" s="11"/>
-      <c r="G114" s="11"/>
-    </row>
-    <row r="115" ht="20.05" customHeight="1">
-      <c r="A115" t="s" s="9">
-        <v>388</v>
-      </c>
-      <c r="B115" t="s" s="15">
-        <v>389</v>
-      </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11"/>
-      <c r="E115" t="s" s="12">
-        <v>390</v>
-      </c>
-      <c r="F115" t="s" s="14">
-        <v>391</v>
-      </c>
-      <c r="G115" t="s" s="12">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="116" ht="20.05" customHeight="1">
-      <c r="A116" t="s" s="9">
+      <c r="B116" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F116" s="9"/>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="7" t="s">
         <v>393</v>
       </c>
-      <c r="B116" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11"/>
-      <c r="E116" t="s" s="13">
+      <c r="B117" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="F116" s="11"/>
-      <c r="G116" s="11"/>
-    </row>
-    <row r="117" ht="20.05" customHeight="1">
-      <c r="A117" t="s" s="9">
-        <v>395</v>
-      </c>
-      <c r="B117" t="s" s="10">
-        <v>396</v>
-      </c>
-      <c r="C117" t="s" s="14">
-        <v>331</v>
-      </c>
-      <c r="D117" t="s" s="12">
-        <v>332</v>
-      </c>
-      <c r="E117" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F117" s="11"/>
-      <c r="G117" s="11"/>
-    </row>
-    <row r="118" ht="20.05" customHeight="1">
-      <c r="A118" t="s" s="9">
+      <c r="F117" s="9"/>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="1:7" ht="20" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="B118" t="s" s="10">
-        <v>9</v>
-      </c>
-      <c r="C118" s="11"/>
-      <c r="D118" s="11"/>
-      <c r="E118" t="s" s="12">
-        <v>9</v>
-      </c>
-      <c r="F118" s="11"/>
-      <c r="G118" s="11"/>
+      <c r="B118" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F118" s="9"/>
+      <c r="G118" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G118" xr:uid="{9B357485-2CAF-1749-A45D-7A741D312BB9}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G118">
+      <sortCondition sortBy="cellColor" ref="C2:C118" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="" tooltip="" display="gameloft.com"/>
-    <hyperlink ref="E3" r:id="rId2" location="" tooltip="" display="https://www.gameloft.com/zz/privacy-notice/"/>
-    <hyperlink ref="A4" r:id="rId3" location="" tooltip="" display="moatads.com"/>
-    <hyperlink ref="A5" r:id="rId4" location="" tooltip="" display="doubleclick.net"/>
-    <hyperlink ref="E5" r:id="rId5" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A6" r:id="rId6" location="" tooltip="" display="facebook.com"/>
-    <hyperlink ref="B6" r:id="rId7" location="" tooltip="" display="https://www.facebook.com/privacy/explanation/"/>
-    <hyperlink ref="E6" r:id="rId8" location="" tooltip="" display="https://www.facebook.com/fbprivacy/"/>
-    <hyperlink ref="A7" r:id="rId9" location="" tooltip="" display="appsflyer.com"/>
-    <hyperlink ref="B7" r:id="rId10" location="" tooltip="" display="https://www.appsflyer.com/legal/privacy-policy/"/>
-    <hyperlink ref="E7" r:id="rId11" location="" tooltip="" display="https://www.appsflyer.com/legal/privacy-policy/"/>
-    <hyperlink ref="A8" r:id="rId12" location="" tooltip="" display="onesignal.com"/>
-    <hyperlink ref="B8" r:id="rId13" location="" tooltip="" display="https://onesignal.com/privacy"/>
-    <hyperlink ref="E8" r:id="rId14" location="" tooltip="" display="https://onesignal.com/privacy_policy"/>
-    <hyperlink ref="A9" r:id="rId15" location="" tooltip="" display="helpshift.com"/>
-    <hyperlink ref="E9" r:id="rId16" location="" tooltip="" display="https://www.helpshift.com/legal/privacy/"/>
-    <hyperlink ref="A10" r:id="rId17" location="" tooltip="" display="firebaseinstallations.googleapis.com"/>
-    <hyperlink ref="B10" r:id="rId18" location="" tooltip="" display="https:////policies.google.com/privacy"/>
-    <hyperlink ref="E10" r:id="rId19" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A11" r:id="rId20" location="" tooltip="" display="crashlytics.com"/>
-    <hyperlink ref="B11" r:id="rId21" location="" tooltip="" display="https:////policies.google.com/privacy"/>
-    <hyperlink ref="E11" r:id="rId22" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A12" r:id="rId23" location="" tooltip="" display="kingsgroupgames.com"/>
-    <hyperlink ref="B12" r:id="rId24" location="" tooltip="" display="http://www.kingsgroupgames.com/privacy-policies"/>
-    <hyperlink ref="E12" r:id="rId25" location="" tooltip="" display="http://kingsgroupgames.com/privacy_policy/kingsgroup/en/"/>
-    <hyperlink ref="B13" r:id="rId26" location="" tooltip="" display="https://go.microsoft.com/fwlink/?LinkId=248681"/>
-    <hyperlink ref="E13" r:id="rId27" location="" tooltip="" display="https://openapi.appcenter.ms/VSAC%20Test%20-%20Custom%20Privacy%20and%20Security%20Terms%20-%202017.11.13.docx"/>
-    <hyperlink ref="A14" r:id="rId28" location="" tooltip="" display="braze.com"/>
-    <hyperlink ref="B14" r:id="rId29" location="" tooltip="" display="https://www.braze.com/company/legal/privacy"/>
-    <hyperlink ref="E14" r:id="rId30" location="" tooltip="" display="https://www.braze.com/company/legal/privacy"/>
-    <hyperlink ref="A15" r:id="rId31" location="" tooltip="" display="applovin.com"/>
-    <hyperlink ref="E15" r:id="rId32" location="" tooltip="" display="https://www.applovin.com/privacy/"/>
-    <hyperlink ref="A16" r:id="rId33" location="" tooltip="" display="rayjump.com"/>
-    <hyperlink ref="B16" r:id="rId34" location="" tooltip="" display="https://www.mobvista.com/en/privacy"/>
-    <hyperlink ref="E16" r:id="rId35" location="" tooltip="" display="https://mintegral-static.rayjump.com/files/document/Entities-Subject-to-GDPR-Mintegral-Privacy-Policy.pdf"/>
-    <hyperlink ref="A17" r:id="rId36" location="" tooltip="" display="unity3d.com"/>
-    <hyperlink ref="B17" r:id="rId37" location="" tooltip="" display="https://unity3d.com/legal/privacy-policy"/>
-    <hyperlink ref="E17" r:id="rId38" location="" tooltip="" display="https://docs.unity.com/ads/ApplePrivacySurvey.htm"/>
-    <hyperlink ref="B18" r:id="rId39" location="" tooltip="" display="https://www.adjust.com/terms/privacy-policy/"/>
-    <hyperlink ref="E18" r:id="rId40" location="" tooltip="" display="https://www.adjust.com/terms/privacy-policy/"/>
-    <hyperlink ref="A20" r:id="rId41" location="" tooltip="" display="firebaseremoteconfig.googleapis.com"/>
-    <hyperlink ref="A21" r:id="rId42" location="" tooltip="" display="amazonaws.com.s3.amazonaws.com"/>
-    <hyperlink ref="A22" r:id="rId43" location="" tooltip="" display="d1w2n8w3obm3k0.cloudfront.net"/>
-    <hyperlink ref="A23" r:id="rId44" location="" tooltip="" display="huuuge.net"/>
-    <hyperlink ref="B23" r:id="rId45" location="" tooltip="" display="https://huuugegames.com/privacy/"/>
-    <hyperlink ref="E23" r:id="rId46" location="" tooltip="" display="https://huuugegames.com/privacy-policy/"/>
-    <hyperlink ref="A24" r:id="rId47" location="" tooltip="" display="execute-api.us-east-1.amazonaws.com"/>
-    <hyperlink ref="E24" r:id="rId48" location="" tooltip="" display="https://vty45ecahb.execute-api.us-east-1.amazonaws.com/prod/blog.dotloop.com/news/dotloop-announces-new-data-privacy-guarantee-2"/>
-    <hyperlink ref="A25" r:id="rId49" location="" tooltip="" display="sentry.io"/>
-    <hyperlink ref="B25" r:id="rId50" location="" tooltip="" display="https://sentry.io/privacy/"/>
-    <hyperlink ref="E25" r:id="rId51" location="" tooltip="" display="https://sentry.io/privacy/"/>
-    <hyperlink ref="A26" r:id="rId52" location="" tooltip="" display="adjust.com"/>
-    <hyperlink ref="B26" r:id="rId53" location="" tooltip="" display="https://www.adjust.com/terms/privacy-policy/"/>
-    <hyperlink ref="E26" r:id="rId54" location="" tooltip="" display="https://www.adjust.com/terms/privacy-policy/"/>
-    <hyperlink ref="A27" r:id="rId55" location="" tooltip="" display="growthbeat.com"/>
-    <hyperlink ref="B27" r:id="rId56" location="" tooltip="" display="https://growthbeat.com/privacypolicy"/>
-    <hyperlink ref="A28" r:id="rId57" location="" tooltip="" display="growthpush.com"/>
-    <hyperlink ref="B28" r:id="rId58" location="" tooltip="" display="https://growthpush.com/privacy-policy"/>
-    <hyperlink ref="E28" r:id="rId59" location="" tooltip="" display="http://growthpush.com/privacy-policy"/>
-    <hyperlink ref="A29" r:id="rId60" location="" tooltip="" display="doubledowncasino2.com"/>
-    <hyperlink ref="B29" r:id="rId61" location="" tooltip="" display="http://www.doubledowninteractive.com/privacy/index.html"/>
-    <hyperlink ref="E29" r:id="rId62" location="" tooltip="" display="https://static.doubledowncasino2.com/agreement/Terms/common.html"/>
-    <hyperlink ref="A30" r:id="rId63" location="" tooltip="" display="rivergame.net"/>
-    <hyperlink ref="E30" r:id="rId64" location="" tooltip="" display="https://www.rivergame.net/en/article.html?footer/privacy_policy"/>
-    <hyperlink ref="A31" r:id="rId65" location="" tooltip="" display="aliyuncs.com"/>
-    <hyperlink ref="E31" r:id="rId66" location="" tooltip="" display="https://terms.aliyun.com/legal-agreement/terms/suit_bu1_ali_cloud/suit_bu1_ali_cloud202104091053_52968.html"/>
-    <hyperlink ref="A32" r:id="rId67" location="" tooltip="" display="aihelp.net"/>
-    <hyperlink ref="B32" r:id="rId68" location="" tooltip="" display="https://aihelp.net/privacypolicy/"/>
-    <hyperlink ref="E32" r:id="rId69" location="" tooltip="" display="https://aihelp.net/Terms-of-Service-AIhelp.net-2017.pdf"/>
-    <hyperlink ref="A33" r:id="rId70" location="" tooltip="" display="topwargame.com"/>
-    <hyperlink ref="B33" r:id="rId71" location="" tooltip="" display="http://topwargames.com/privacy-policy"/>
-    <hyperlink ref="A34" r:id="rId72" location="" tooltip="" display="topwarapp.com"/>
-    <hyperlink ref="A35" r:id="rId73" location="" tooltip="" display="singular.net"/>
-    <hyperlink ref="E35" r:id="rId74" location="" tooltip="" display="https://www.singular.net/next-gen-attribution-series/apac-ua-ios-14-register/clkn/https/liftoff.io/privacy-policy/"/>
-    <hyperlink ref="A36" r:id="rId75" location="" tooltip="" display="www.googleapis.com"/>
-    <hyperlink ref="A37" r:id="rId76" location="" tooltip="" display="mparticle.com"/>
-    <hyperlink ref="B37" r:id="rId77" location="" tooltip="" display="https://www.mparticle.com/privacypolicy"/>
-    <hyperlink ref="E37" r:id="rId78" location="" tooltip="" display="https://www.mparticle.com/tag/privacy"/>
-    <hyperlink ref="A38" r:id="rId79" location="" tooltip="" display="playtika.com"/>
-    <hyperlink ref="B38" r:id="rId80" location="" tooltip="" display="https://www.playtika.com/candidate-privacy-policy"/>
-    <hyperlink ref="E38" r:id="rId81" location="" tooltip="" display="https://playtika.com/privacy-notice/"/>
-    <hyperlink ref="A39" r:id="rId82" location="" tooltip="" display="gstatic.com"/>
-    <hyperlink ref="E39" r:id="rId83" location="" tooltip="" display="https://www.gstatic.com/domainads/privacy/"/>
-    <hyperlink ref="A40" r:id="rId84" location="" tooltip="" display="ssacdn.com"/>
-    <hyperlink ref="E41" r:id="rId85" location="" tooltip="" display="https://ironsource.mobi/privacypolicy.html"/>
-    <hyperlink ref="A42" r:id="rId86" location="" tooltip="" display="inmobi.com"/>
-    <hyperlink ref="B42" r:id="rId87" location="" tooltip="" display="https://www.inmobi.com/website-privacy-policy/"/>
-    <hyperlink ref="E42" r:id="rId88" location="" tooltip="" display="https://www.inmobi.com/privacy-policy"/>
-    <hyperlink ref="A43" r:id="rId89" location="" tooltip="" display="supersonicads.com"/>
-    <hyperlink ref="B43" r:id="rId90" location="" tooltip="" display="https://supersonic.com/privacy-policy/"/>
-    <hyperlink ref="E43" r:id="rId91" location="" tooltip="" display="https://supersonic.com/privacy/"/>
-    <hyperlink ref="A44" r:id="rId92" location="" tooltip="" display="jquery.com"/>
-    <hyperlink ref="B44" r:id="rId93" location="" tooltip="" display="https://privacy-policy.openjsf.org/"/>
-    <hyperlink ref="A45" r:id="rId94" location="" tooltip="" display="d105xpbtjj9cjp.cloudfront.net"/>
-    <hyperlink ref="E45" r:id="rId95" location="" tooltip="" display="http://d105xpbtjj9cjp.cloudfront.net/public/privacy/slotocashcasino/privacy-policy.html"/>
-    <hyperlink ref="G45" r:id="rId96" location="" tooltip="" display="SlotoCashCasino.com"/>
-    <hyperlink ref="A46" r:id="rId97" location="" tooltip="" display="playrix.com"/>
-    <hyperlink ref="E46" r:id="rId98" location="" tooltip="" display="https://www.playrix.com/en/privacy/index.html"/>
-    <hyperlink ref="A47" r:id="rId99" location="" tooltip="" display="igg.com"/>
-    <hyperlink ref="B47" r:id="rId100" location="" tooltip="" display="https://policies.igg.com/privacy_policy"/>
-    <hyperlink ref="E47" r:id="rId101" location="" tooltip="" display="https://store.igg.com/m/index/privacypolicy"/>
-    <hyperlink ref="A48" r:id="rId102" location="" tooltip="" display="37games.com"/>
-    <hyperlink ref="E48" r:id="rId103" location="" tooltip="" display="https://ujoy.37games.com/privacy?zone=zh"/>
-    <hyperlink ref="A49" r:id="rId104" location="" tooltip="" display="getui.com"/>
-    <hyperlink ref="B49" r:id="rId105" location="" tooltip="" display="https://www.getui.com/privacy"/>
-    <hyperlink ref="E49" r:id="rId106" location="" tooltip="" display="https://docs.getui.com/privacy/"/>
-    <hyperlink ref="A50" r:id="rId107" location="" tooltip="" display="unity.cn"/>
-    <hyperlink ref="E50" r:id="rId108" location="" tooltip="" display="https://docs.unity.cn/Packages/com.unity.ads@3.2/manual/LegalPrivacy.html"/>
-    <hyperlink ref="A51" r:id="rId109" location="" tooltip="" display="googleadservices.com"/>
-    <hyperlink ref="A52" r:id="rId110" location="" tooltip="" display="im30app.com"/>
-    <hyperlink ref="E52" r:id="rId111" location="" tooltip="" display="https://webaz.im30app.com/privacy.html"/>
-    <hyperlink ref="A53" r:id="rId112" location="" tooltip="" display="ipinfo.io"/>
-    <hyperlink ref="E53" r:id="rId113" location="" tooltip="" display="https://ipinfo.io/privacy-policy"/>
-    <hyperlink ref="A54" r:id="rId114" location="" tooltip="" display="lilithgame.com"/>
-    <hyperlink ref="B54" r:id="rId115" location="" tooltip="" display="https://www.lilith.com/privacy"/>
-    <hyperlink ref="E54" r:id="rId116" location="" tooltip="" display="https://ancient.lilith.com/en/privacy_lilith.html"/>
-    <hyperlink ref="A55" r:id="rId117" location="" tooltip="" display="lilithcdn.com"/>
-    <hyperlink ref="A56" r:id="rId118" location="" tooltip="" display="king.com"/>
-    <hyperlink ref="E56" r:id="rId119" location="" tooltip="" display="https://www.king.com/privacyPolicy"/>
-    <hyperlink ref="F56" r:id="rId120" location="" tooltip="" display="King.com"/>
-    <hyperlink ref="G56" r:id="rId121" location="" tooltip="" display="King.com"/>
-    <hyperlink ref="A57" r:id="rId122" location="" tooltip="" display="daum.net"/>
-    <hyperlink ref="E57" r:id="rId123" location="" tooltip="" display="https://policy.daum.net/info_protection/info_protection?pc=y"/>
-    <hyperlink ref="A58" r:id="rId124" location="" tooltip="" display="qq.com"/>
-    <hyperlink ref="B58" r:id="rId125" location="" tooltip="" display="https:////privacy.qq.com/policy/cookie-privacypolicy"/>
-    <hyperlink ref="E58" r:id="rId126" location="" tooltip="" display="https://weixin.qq.com/cgi-bin/readtemplate?lang=en&amp;t=weixin_agreement&amp;s=privacy"/>
-    <hyperlink ref="A59" r:id="rId127" location="" tooltip="" display="clashofclans.com"/>
-    <hyperlink ref="B59" r:id="rId128" location="" tooltip="" display="http://supercell.com/en/privacy-policy/"/>
-    <hyperlink ref="D59" r:id="rId129" location="" tooltip="" display="supercell.com"/>
-    <hyperlink ref="E59" r:id="rId130" location="" tooltip="" display="https://clashofclans.com/blog/news/we-are-updating-our-privacy-policy.html"/>
-    <hyperlink ref="A60" r:id="rId131" location="" tooltip="" display="midasplayer.com"/>
-    <hyperlink ref="E60" r:id="rId132" location="" tooltip="" display="https://k1.midasplayer.com/termsAndConditions"/>
-    <hyperlink ref="F60" r:id="rId133" location="" tooltip="" display="King.com"/>
-    <hyperlink ref="G60" r:id="rId134" location="" tooltip="" display="King.com"/>
-    <hyperlink ref="A61" r:id="rId135" location="" tooltip="" display="tobsnssdk.com"/>
-    <hyperlink ref="A62" r:id="rId136" location="" tooltip="" display="firebaselogging-pa.googleapis.com"/>
-    <hyperlink ref="B62" r:id="rId137" location="" tooltip="" display="https:////policies.google.com/privacy"/>
-    <hyperlink ref="E62" r:id="rId138" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A63" r:id="rId139" location="" tooltip="" display="pluto.tv"/>
-    <hyperlink ref="E63" r:id="rId140" location="" tooltip="" display="https://corporate.pluto.tv/privacy-policy-eu/"/>
-    <hyperlink ref="A64" r:id="rId141" location="" tooltip="" display="imasdk.googleapis.com"/>
-    <hyperlink ref="A65" r:id="rId142" location="" tooltip="" display="branch.io"/>
-    <hyperlink ref="B65" r:id="rId143" location="" tooltip="" display="https://branch.io/policies/privacy-policy/"/>
-    <hyperlink ref="E65" r:id="rId144" location="" tooltip="" display="https://branch.io/branch-california-privacy-addendum/"/>
-    <hyperlink ref="A66" r:id="rId145" location="" tooltip="" display="reddit.com"/>
-    <hyperlink ref="B66" r:id="rId146" location="" tooltip="" display="https://www.redditinc.com/policies/privacy-policy"/>
-    <hyperlink ref="E66" r:id="rId147" location="" tooltip="" display="https://www.reddit.com/help/privacypolicy/"/>
-    <hyperlink ref="A67" r:id="rId148" location="" tooltip="" display="videoeditors.in"/>
-    <hyperlink ref="A68" r:id="rId149" location="" tooltip="" display="coinbase.com"/>
-    <hyperlink ref="E68" r:id="rId150" location="" tooltip="" display="https://www.coinbase.com/legal/privacy"/>
-    <hyperlink ref="A69" r:id="rId151" location="" tooltip="" display="mona.co"/>
-    <hyperlink ref="B69" r:id="rId152" location="" tooltip="" display="https://app.mona.co/privacy/global"/>
-    <hyperlink ref="A70" r:id="rId153" location="" tooltip="" display="siftscience.com"/>
-    <hyperlink ref="B70" r:id="rId154" location="" tooltip="" display="https://sift.com/site-privacy"/>
-    <hyperlink ref="E70" r:id="rId155" location="" tooltip="" display="https://sift.com/service-privacy"/>
-    <hyperlink ref="A71" r:id="rId156" location="" tooltip="" display="bugsnag.com"/>
-    <hyperlink ref="B71" r:id="rId157" location="" tooltip="" display="https://docs.bugsnag.com/legal/privacy-policy/"/>
-    <hyperlink ref="E71" r:id="rId158" location="" tooltip="" display="https://docs.bugsnag.com/legal/privacy-policy/"/>
-    <hyperlink ref="A72" r:id="rId159" location="" tooltip="" display="google-analytics.com"/>
-    <hyperlink ref="E72" r:id="rId160" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A73" r:id="rId161" location="" tooltip="" display="mixpanel.com"/>
-    <hyperlink ref="E73" r:id="rId162" location="" tooltip="" display="https://mixpanel.com/legal/privacy-policy/"/>
-    <hyperlink ref="A74" r:id="rId163" location="" tooltip="" display="segment.com"/>
-    <hyperlink ref="B74" r:id="rId164" location="" tooltip="" display="https://segment.com/legal/privacy/"/>
-    <hyperlink ref="C74" r:id="rId165" location="" tooltip="" display="Segment.io"/>
-    <hyperlink ref="D74" r:id="rId166" location="" tooltip="" display="Segment.io"/>
-    <hyperlink ref="E74" r:id="rId167" location="" tooltip="" display="https://segment.com/legal/privacy/"/>
-    <hyperlink ref="F74" r:id="rId168" location="" tooltip="" display="Segment.io"/>
-    <hyperlink ref="G74" r:id="rId169" location="" tooltip="" display="Segment.io"/>
-    <hyperlink ref="A75" r:id="rId170" location="" tooltip="" display="applvn.com"/>
-    <hyperlink ref="A76" r:id="rId171" location="" tooltip="" display="uber.com"/>
-    <hyperlink ref="E76" r:id="rId172" location="" tooltip="" display="https://www.uber.com/legal/en/"/>
-    <hyperlink ref="A77" r:id="rId173" location="" tooltip="" display="oojoovae.org"/>
-    <hyperlink ref="A78" r:id="rId174" location="" tooltip="" display="smartvisionapp.com"/>
-    <hyperlink ref="B78" r:id="rId175" location="" tooltip="" display="https://payments.google.com/legaldocument?family=0.privacynotice&amp;hl=en_US"/>
-    <hyperlink ref="E78" r:id="rId176" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A79" r:id="rId177" location="" tooltip="" display="twimg.com"/>
-    <hyperlink ref="A80" r:id="rId178" location="" tooltip="" display="t.co"/>
-    <hyperlink ref="B80" r:id="rId179" location="" tooltip="" display="https://twitter.com/privacy"/>
-    <hyperlink ref="A81" r:id="rId180" location="" tooltip="" display="twitter.com"/>
-    <hyperlink ref="B81" r:id="rId181" location="" tooltip="" display="https://twitter.com/privacy"/>
-    <hyperlink ref="E81" r:id="rId182" location="" tooltip="" display="https://twitter.com/en/privacy"/>
-    <hyperlink ref="A82" r:id="rId183" location="" tooltip="" display="amazon.com"/>
-    <hyperlink ref="E82" r:id="rId184" location="" tooltip="" display="https://aws.amazon.com/es/privacy/"/>
-    <hyperlink ref="A83" r:id="rId185" location="" tooltip="" display="media-amazon.com"/>
-    <hyperlink ref="E83" r:id="rId186" location="" tooltip="" display="https://m.media-amazon.com/images/G/01/sidewalk/final_privacy_security_whitepaper.pdf"/>
-    <hyperlink ref="A84" r:id="rId187" location="" tooltip="" display="dtjsystab5p0r.cloudfront.net"/>
-    <hyperlink ref="A85" r:id="rId188" location="" tooltip="" display="amazon-adsystem.com"/>
-    <hyperlink ref="E85" r:id="rId189" location="" tooltip="" display="https://rcm-na.amazon-adsystem.com/e/cm/privacy-policy.html?o=1"/>
-    <hyperlink ref="A86" r:id="rId190" location="" tooltip="" display="amazon.es"/>
-    <hyperlink ref="B86" r:id="rId191" location="" tooltip="" display="https://www.amazon.es/gp/help/customer/display.html?nodeId=201909010&amp;ref_=footer_privacy"/>
-    <hyperlink ref="E86" r:id="rId192" location="" tooltip="" display="https://sellercentral.amazon.es/forums/privacy"/>
-    <hyperlink ref="A87" r:id="rId193" location="" tooltip="" display="d1s44l2n6n3ub3.cloudfront.net"/>
-    <hyperlink ref="A88" r:id="rId194" location="" tooltip="" display="klarnacdn.net"/>
-    <hyperlink ref="E88" r:id="rId195" location="" tooltip="" display="https://x.klarnacdn.net/sipp/legal/sv_se/account/Kontovillkor%20(g%C3%A4ller%20fr%C3%A5n%20och%20med%20den%2028%20januari%202021).pdf"/>
-    <hyperlink ref="A89" r:id="rId196" location="" tooltip="" display="klarna.com"/>
-    <hyperlink ref="B89" r:id="rId197" location="" tooltip="" display="https://cdn.klarna.com/1.0/shared/content/legal/terms/0/es_es/privacy"/>
-    <hyperlink ref="E89" r:id="rId198" location="" tooltip="" display="https://www.klarna.com/international/privacy-policy/"/>
-    <hyperlink ref="A90" r:id="rId199" location="" tooltip="" display="siege-amazon.com"/>
-    <hyperlink ref="E90" r:id="rId200" location="" tooltip="" display="https://aws.amazon.com/es/privacy/"/>
-    <hyperlink ref="A91" r:id="rId201" location="" tooltip="" display="ssl-images-amazon.com"/>
-    <hyperlink ref="E91" r:id="rId202" location="" tooltip="" display="https://images-na.ssl-images-amazon.com/images/G/02/rainier/help/legal/BSA_EU_English_redlined.pdf"/>
-    <hyperlink ref="A92" r:id="rId203" location="" tooltip="" display="amazonvideo.com"/>
-    <hyperlink ref="B92" r:id="rId204" location="" tooltip="" display="https://www.primevideo.com/help?nodeId=202064890"/>
-    <hyperlink ref="E92" r:id="rId205" location="" tooltip="" display="https://www.primevideo.com/ww-av-legal-home/ref=atv_ftr_ter"/>
-    <hyperlink ref="A93" r:id="rId206" location="" tooltip="" display="aiv-delivery.net"/>
-    <hyperlink ref="A94" r:id="rId207" location="" tooltip="" display="spotify.com"/>
-    <hyperlink ref="B94" r:id="rId208" location="" tooltip="" display="https://www.spotify.com/es/legal/privacy-policy/"/>
-    <hyperlink ref="E94" r:id="rId209" location="" tooltip="" display="https://www.spotify.com/us/legal/privacy-policy/"/>
-    <hyperlink ref="A95" r:id="rId210" location="" tooltip="" display="googlesyndication.com"/>
-    <hyperlink ref="B95" r:id="rId211" location="" tooltip="" display="http://www.google.com/intl/es/policies/privacy/"/>
-    <hyperlink ref="E95" r:id="rId212" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A96" r:id="rId213" location="" tooltip="" display="googleusercontent.com"/>
-    <hyperlink ref="E96" r:id="rId214" location="" tooltip="" display="http://184.38.192.35.bc.googleusercontent.com/m_t_bank/210616/1/website/files/vvsbecxshsowxvjs.privacy-poli.html"/>
-    <hyperlink ref="A97" r:id="rId215" location="" tooltip="" display="fonts.googleapis.com"/>
-    <hyperlink ref="A98" r:id="rId216" location="" tooltip="" display="isnssdk.com"/>
-    <hyperlink ref="E98" r:id="rId217" location="" tooltip="" display="https://i.isnssdk.com/wap/privacy_policy"/>
-    <hyperlink ref="A99" r:id="rId218" location="" tooltip="" display="byteoversea.com"/>
-    <hyperlink ref="E99" r:id="rId219" location="" tooltip="" display="https://va-link.byteoversea.com/link/?aid=1988&amp;lang=en&amp;scene=biolink&amp;target=https%3A%2F%2Fwww.tiktok.com%2Flegal%2Freport%2Ffeedback"/>
-    <hyperlink ref="A100" r:id="rId220" location="" tooltip="" display="ibytedtos.com"/>
-    <hyperlink ref="E100" r:id="rId221" location="" tooltip="" display="https://sf16-draftcdn-sg.ibytedtos.com/obj/ies-hotsoon-draft-sg/capcut/via_clause_privacy_policy_en.html"/>
-    <hyperlink ref="A101" r:id="rId222" location="" tooltip="" display="onebooster.me"/>
-    <hyperlink ref="B101" r:id="rId223" location="" tooltip="" display="https://payments.google.com/legaldocument?family=0.privacynotice&amp;hl=en_US"/>
-    <hyperlink ref="E101" r:id="rId224" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A102" r:id="rId225" location="" tooltip="" display="discord.com"/>
-    <hyperlink ref="B102" r:id="rId226" location="" tooltip="" display="https://discord.com/privacy"/>
-    <hyperlink ref="E102" r:id="rId227" location="" tooltip="" display="https://discord.com/privacy"/>
-    <hyperlink ref="A103" r:id="rId228" location="" tooltip="" display="discordapp.net"/>
-    <hyperlink ref="B103" r:id="rId229" location="" tooltip="" display="https://discordapp.com/privacy"/>
-    <hyperlink ref="E103" r:id="rId230" location="" tooltip="" display="https://i18n.discordapp.com/page/privacy-policy"/>
-    <hyperlink ref="A104" r:id="rId231" location="" tooltip="" display="paypal.com"/>
-    <hyperlink ref="B104" r:id="rId232" location="" tooltip="" display="https://www.paypal.com/es/webapps/mpp/ua/privacy-full?locale.x=es_ES"/>
-    <hyperlink ref="E104" r:id="rId233" location="" tooltip="" display="https://www.paypal.com/us/webapps/mpp/ua/privacy-full"/>
-    <hyperlink ref="A105" r:id="rId234" location="" tooltip="" display="qualtrics.com"/>
-    <hyperlink ref="B105" r:id="rId235" location="" tooltip="" display="https://www.qualtrics.com/privacy-statement/"/>
-    <hyperlink ref="E105" r:id="rId236" location="" tooltip="" display="https://siteintercept.qualtrics.com/WRSiteInterceptEngine/?Q_Redirect=http://www8.hp.com/us/en/privacy/ww-privacy.html&amp;Q_CID=CR_3CKSzlD48ljnj8h&amp;Q_ASID=AS_80664135&amp;Q_SRT=uDsS6MtDi/0aIFyzkS7CFg%3D%3D&amp;Q_SIID=SI_3IZyLMmBqEO7KrX&amp;Q_LOC=https://h30467.www3.hp.com/t5/Hardware-para-notebooks/Problema-de-carga-bater%25C3%25ADa-hp/m-p/430413"/>
-    <hyperlink ref="A106" r:id="rId237" location="" tooltip="" display="paypalobjects.com"/>
-    <hyperlink ref="E106" r:id="rId238" location="" tooltip="" display="https://www.paypalobjects.com/webstatic/ua/pdf/EU/privacy.pdf"/>
-    <hyperlink ref="A107" r:id="rId239" location="" tooltip="" display="google.com"/>
-    <hyperlink ref="B107" r:id="rId240" location="" tooltip="" display="http://www.google.com/intl/es/policies/privacy/"/>
-    <hyperlink ref="E107" r:id="rId241" location="" tooltip="" display="https://policies.google.com/privacy?hl=en-US"/>
-    <hyperlink ref="A108" r:id="rId242" location="" tooltip="" display="netflix.com"/>
-    <hyperlink ref="B108" r:id="rId243" location="" tooltip="" display="https://help.netflix.com/legal/privacy"/>
-    <hyperlink ref="E108" r:id="rId244" location="" tooltip="" display="https://help.netflix.com/legal/privacy"/>
-    <hyperlink ref="A109" r:id="rId245" location="" tooltip="" display="shein.com"/>
-    <hyperlink ref="E109" r:id="rId246" location="" tooltip="" display="https://us.shein.com/Privacy-Security-Policy-a-282.html"/>
-    <hyperlink ref="A110" r:id="rId247" location="" tooltip="" display="forter.com"/>
-    <hyperlink ref="E110" r:id="rId248" location="" tooltip="" display="https://www.forter.com/privacy-policy/"/>
-    <hyperlink ref="A111" r:id="rId249" location="" tooltip="" display="hbo.com"/>
-    <hyperlink ref="B111" r:id="rId250" location="" tooltip="" display="https://www.warnermediaprivacy.com/policycenter/b2c/wme/"/>
-    <hyperlink ref="E111" r:id="rId251" location="" tooltip="" display="https://www.hbo.com/privacy-policy"/>
-    <hyperlink ref="A112" r:id="rId252" location="" tooltip="" display="snapchat.com"/>
-    <hyperlink ref="B112" r:id="rId253" location="" tooltip="" display="https://www.snap.com/privacy/privacy-policy"/>
-    <hyperlink ref="E112" r:id="rId254" location="" tooltip="" display="https://www.snapchat.com/privacy"/>
-    <hyperlink ref="A113" r:id="rId255" location="" tooltip="" display="adobedtm.com"/>
-    <hyperlink ref="A114" r:id="rId256" location="" tooltip="" display="bamgrid.com"/>
-    <hyperlink ref="A115" r:id="rId257" location="" tooltip="" display="whatsapp.net"/>
-    <hyperlink ref="B115" r:id="rId258" location="" tooltip="" display="https://www.whatsapp.com/legal/"/>
-    <hyperlink ref="E115" r:id="rId259" location="" tooltip="" display="https://www.whatsapp.com/legal/privacy-policy"/>
-    <hyperlink ref="A116" r:id="rId260" location="" tooltip="" display="instagram.com"/>
-    <hyperlink ref="E116" r:id="rId261" location="" tooltip="" display="https://www.instagram.com/explore/tags/privacidad/"/>
-    <hyperlink ref="A117" r:id="rId262" location="" tooltip="" display="tiktokv.com"/>
-    <hyperlink ref="B117" r:id="rId263" location="" tooltip="" display="https://www.tiktok.com/legal/privacy-policy-row?lang=en"/>
-    <hyperlink ref="A118" r:id="rId264" location="" tooltip="" display="dns.google"/>
+    <hyperlink ref="A43" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E43" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A76" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="A77" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E77" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="A35" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B35" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="E35" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="A3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B3" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="E3" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="A4" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B4" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E4" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="A44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="E44" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="A5" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B5" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="E5" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="A6" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B6" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E6" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="A7" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B7" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E7" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="B36" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E36" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="A8" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B8" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="E8" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="A45" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="E45" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="A78" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B78" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="E78" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="A9" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B9" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="E9" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B10" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="E10" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="A80" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="A81" r:id="rId42" display="amazonaws.com.s3.amazonaws.com" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="A82" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="A11" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B11" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="E11" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="A83" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="E83" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="A12" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="B12" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="E12" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="A13" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="B13" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="E13" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="A37" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="B37" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="A14" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="B14" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="E14" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="A15" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="B15" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="E15" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="A84" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="E84" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="A46" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="E46" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="A38" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="B38" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="E38" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="A39" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="B39" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="A85" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="A86" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="E86" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="A87" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="A16" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="B16" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="E16" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="A17" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="B17" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="E17" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="A88" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="E88" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="A89" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="E47" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="A18" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="B18" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="E18" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="A19" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="B19" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="E19" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="A90" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="B90" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="A48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="E48" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G48" r:id="rId96" display="SlotoCashCasino.com" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="A91" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="E91" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="A49" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="B49" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="E49" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="A92" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="E92" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="A93" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="B93" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="E93" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="A50" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="E50" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="A94" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="A51" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="E51" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="A52" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="E52" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="A53" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="B53" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="E53" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="A95" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="A54" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="E54" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="F54" r:id="rId120" display="King.com" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="G54" r:id="rId121" display="King.com" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="A55" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="E55" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="A56" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="B56" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="E56" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="A40" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="B40" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="D40" r:id="rId129" display="supercell.com" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="E40" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="A57" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="E57" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="F57" r:id="rId133" display="King.com" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="G57" r:id="rId134" display="King.com" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="A96" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="A20" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="B20" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="E20" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="A58" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="E58" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="A97" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="A21" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="B21" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="E21" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="A22" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="B22" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="E22" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="A98" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="A99" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="E99" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="A100" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="B100" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="A23" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="B23" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="E23" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="A24" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="B24" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="E24" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="A59" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="E59" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="A60" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="E60" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="A25" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="B25" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="C25" r:id="rId165" display="Segment.io" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="D25" r:id="rId166" display="Segment.io" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="E25" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="F25" r:id="rId168" display="Segment.io" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="G25" r:id="rId169" display="Segment.io" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="A101" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="A61" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="E61" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="A102" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="A26" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="B26" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="E26" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
+    <hyperlink ref="A103" r:id="rId177" xr:uid="{00000000-0004-0000-0000-0000B0000000}"/>
+    <hyperlink ref="A41" r:id="rId178" xr:uid="{00000000-0004-0000-0000-0000B1000000}"/>
+    <hyperlink ref="B41" r:id="rId179" xr:uid="{00000000-0004-0000-0000-0000B2000000}"/>
+    <hyperlink ref="A27" r:id="rId180" xr:uid="{00000000-0004-0000-0000-0000B3000000}"/>
+    <hyperlink ref="B27" r:id="rId181" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="E27" r:id="rId182" xr:uid="{00000000-0004-0000-0000-0000B5000000}"/>
+    <hyperlink ref="A62" r:id="rId183" xr:uid="{00000000-0004-0000-0000-0000B6000000}"/>
+    <hyperlink ref="E62" r:id="rId184" xr:uid="{00000000-0004-0000-0000-0000B7000000}"/>
+    <hyperlink ref="A104" r:id="rId185" xr:uid="{00000000-0004-0000-0000-0000B8000000}"/>
+    <hyperlink ref="E104" r:id="rId186" xr:uid="{00000000-0004-0000-0000-0000B9000000}"/>
+    <hyperlink ref="A105" r:id="rId187" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="A63" r:id="rId188" xr:uid="{00000000-0004-0000-0000-0000BB000000}"/>
+    <hyperlink ref="E63" r:id="rId189" xr:uid="{00000000-0004-0000-0000-0000BC000000}"/>
+    <hyperlink ref="A106" r:id="rId190" xr:uid="{00000000-0004-0000-0000-0000BD000000}"/>
+    <hyperlink ref="B106" r:id="rId191" xr:uid="{00000000-0004-0000-0000-0000BE000000}"/>
+    <hyperlink ref="E106" r:id="rId192" xr:uid="{00000000-0004-0000-0000-0000BF000000}"/>
+    <hyperlink ref="A107" r:id="rId193" xr:uid="{00000000-0004-0000-0000-0000C0000000}"/>
+    <hyperlink ref="A108" r:id="rId194" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="E108" r:id="rId195" xr:uid="{00000000-0004-0000-0000-0000C2000000}"/>
+    <hyperlink ref="A64" r:id="rId196" xr:uid="{00000000-0004-0000-0000-0000C3000000}"/>
+    <hyperlink ref="B64" r:id="rId197" xr:uid="{00000000-0004-0000-0000-0000C4000000}"/>
+    <hyperlink ref="E64" r:id="rId198" xr:uid="{00000000-0004-0000-0000-0000C5000000}"/>
+    <hyperlink ref="A65" r:id="rId199" xr:uid="{00000000-0004-0000-0000-0000C6000000}"/>
+    <hyperlink ref="E65" r:id="rId200" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="A109" r:id="rId201" xr:uid="{00000000-0004-0000-0000-0000C8000000}"/>
+    <hyperlink ref="E109" r:id="rId202" xr:uid="{00000000-0004-0000-0000-0000C9000000}"/>
+    <hyperlink ref="A28" r:id="rId203" xr:uid="{00000000-0004-0000-0000-0000CA000000}"/>
+    <hyperlink ref="B28" r:id="rId204" xr:uid="{00000000-0004-0000-0000-0000CB000000}"/>
+    <hyperlink ref="E28" r:id="rId205" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="A110" r:id="rId206" xr:uid="{00000000-0004-0000-0000-0000CD000000}"/>
+    <hyperlink ref="A29" r:id="rId207" xr:uid="{00000000-0004-0000-0000-0000CE000000}"/>
+    <hyperlink ref="B29" r:id="rId208" xr:uid="{00000000-0004-0000-0000-0000CF000000}"/>
+    <hyperlink ref="E29" r:id="rId209" xr:uid="{00000000-0004-0000-0000-0000D0000000}"/>
+    <hyperlink ref="A66" r:id="rId210" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="B66" r:id="rId211" xr:uid="{00000000-0004-0000-0000-0000D2000000}"/>
+    <hyperlink ref="E66" r:id="rId212" xr:uid="{00000000-0004-0000-0000-0000D3000000}"/>
+    <hyperlink ref="A111" r:id="rId213" xr:uid="{00000000-0004-0000-0000-0000D4000000}"/>
+    <hyperlink ref="E111" r:id="rId214" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="A112" r:id="rId215" xr:uid="{00000000-0004-0000-0000-0000D6000000}"/>
+    <hyperlink ref="A67" r:id="rId216" xr:uid="{00000000-0004-0000-0000-0000D7000000}"/>
+    <hyperlink ref="E67" r:id="rId217" xr:uid="{00000000-0004-0000-0000-0000D8000000}"/>
+    <hyperlink ref="A68" r:id="rId218" xr:uid="{00000000-0004-0000-0000-0000D9000000}"/>
+    <hyperlink ref="E68" r:id="rId219" xr:uid="{00000000-0004-0000-0000-0000DA000000}"/>
+    <hyperlink ref="A113" r:id="rId220" xr:uid="{00000000-0004-0000-0000-0000DB000000}"/>
+    <hyperlink ref="E113" r:id="rId221" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="A69" r:id="rId222" xr:uid="{00000000-0004-0000-0000-0000DD000000}"/>
+    <hyperlink ref="B69" r:id="rId223" xr:uid="{00000000-0004-0000-0000-0000DE000000}"/>
+    <hyperlink ref="E69" r:id="rId224" xr:uid="{00000000-0004-0000-0000-0000DF000000}"/>
+    <hyperlink ref="A30" r:id="rId225" xr:uid="{00000000-0004-0000-0000-0000E0000000}"/>
+    <hyperlink ref="B30" r:id="rId226" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="E30" r:id="rId227" xr:uid="{00000000-0004-0000-0000-0000E2000000}"/>
+    <hyperlink ref="A31" r:id="rId228" xr:uid="{00000000-0004-0000-0000-0000E3000000}"/>
+    <hyperlink ref="B31" r:id="rId229" xr:uid="{00000000-0004-0000-0000-0000E4000000}"/>
+    <hyperlink ref="E31" r:id="rId230" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="A70" r:id="rId231" xr:uid="{00000000-0004-0000-0000-0000E6000000}"/>
+    <hyperlink ref="B70" r:id="rId232" xr:uid="{00000000-0004-0000-0000-0000E7000000}"/>
+    <hyperlink ref="E70" r:id="rId233" xr:uid="{00000000-0004-0000-0000-0000E8000000}"/>
+    <hyperlink ref="A32" r:id="rId234" xr:uid="{00000000-0004-0000-0000-0000E9000000}"/>
+    <hyperlink ref="B32" r:id="rId235" xr:uid="{00000000-0004-0000-0000-0000EA000000}"/>
+    <hyperlink ref="E32" r:id="rId236" display="https://siteintercept.qualtrics.com/WRSiteInterceptEngine/?Q_Redirect=http://www8.hp.com/us/en/privacy/ww-privacy.html&amp;Q_CID=CR_3CKSzlD48ljnj8h&amp;Q_ASID=AS_80664135&amp;Q_SRT=uDsS6MtDi/0aIFyzkS7CFg%3D%3D&amp;Q_SIID=SI_3IZyLMmBqEO7KrX&amp;Q_LOC=https://h30467.www3.hp.com/t5/Hardware-para-notebooks/Problema-de-carga-bater%25C3%25ADa-hp/m-p/430413" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="A114" r:id="rId237" xr:uid="{00000000-0004-0000-0000-0000EC000000}"/>
+    <hyperlink ref="E114" r:id="rId238" xr:uid="{00000000-0004-0000-0000-0000ED000000}"/>
+    <hyperlink ref="A71" r:id="rId239" xr:uid="{00000000-0004-0000-0000-0000EE000000}"/>
+    <hyperlink ref="B71" r:id="rId240" xr:uid="{00000000-0004-0000-0000-0000EF000000}"/>
+    <hyperlink ref="E71" r:id="rId241" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="A33" r:id="rId242" xr:uid="{00000000-0004-0000-0000-0000F1000000}"/>
+    <hyperlink ref="B33" r:id="rId243" xr:uid="{00000000-0004-0000-0000-0000F2000000}"/>
+    <hyperlink ref="E33" r:id="rId244" xr:uid="{00000000-0004-0000-0000-0000F3000000}"/>
+    <hyperlink ref="A72" r:id="rId245" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="E72" r:id="rId246" xr:uid="{00000000-0004-0000-0000-0000F5000000}"/>
+    <hyperlink ref="A73" r:id="rId247" xr:uid="{00000000-0004-0000-0000-0000F6000000}"/>
+    <hyperlink ref="E73" r:id="rId248" xr:uid="{00000000-0004-0000-0000-0000F7000000}"/>
+    <hyperlink ref="A74" r:id="rId249" xr:uid="{00000000-0004-0000-0000-0000F8000000}"/>
+    <hyperlink ref="B74" r:id="rId250" xr:uid="{00000000-0004-0000-0000-0000F9000000}"/>
+    <hyperlink ref="E74" r:id="rId251" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="A34" r:id="rId252" xr:uid="{00000000-0004-0000-0000-0000FB000000}"/>
+    <hyperlink ref="B34" r:id="rId253" xr:uid="{00000000-0004-0000-0000-0000FC000000}"/>
+    <hyperlink ref="E34" r:id="rId254" xr:uid="{00000000-0004-0000-0000-0000FD000000}"/>
+    <hyperlink ref="A115" r:id="rId255" xr:uid="{00000000-0004-0000-0000-0000FE000000}"/>
+    <hyperlink ref="A116" r:id="rId256" xr:uid="{00000000-0004-0000-0000-0000FF000000}"/>
+    <hyperlink ref="A75" r:id="rId257" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="B75" r:id="rId258" xr:uid="{00000000-0004-0000-0000-000001010000}"/>
+    <hyperlink ref="E75" r:id="rId259" xr:uid="{00000000-0004-0000-0000-000002010000}"/>
+    <hyperlink ref="A117" r:id="rId260" xr:uid="{00000000-0004-0000-0000-000003010000}"/>
+    <hyperlink ref="E117" r:id="rId261" xr:uid="{00000000-0004-0000-0000-000004010000}"/>
+    <hyperlink ref="A42" r:id="rId262" xr:uid="{00000000-0004-0000-0000-000005010000}"/>
+    <hyperlink ref="B42" r:id="rId263" xr:uid="{00000000-0004-0000-0000-000006010000}"/>
+    <hyperlink ref="A118" r:id="rId264" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
   </hyperlinks>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAA9DCC5-4910-BC41-8811-561D1113AFFB}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="6" max="9" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E1" t="s">
+        <v>402</v>
+      </c>
+      <c r="F1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H1" t="s">
+        <v>406</v>
+      </c>
+      <c r="I1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>398</v>
+      </c>
+      <c r="B2">
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <f>(B2+D2)/(B2+C2+D2+E2)</f>
+        <v>0.92941176470588238</v>
+      </c>
+      <c r="G2">
+        <f>(B2)/(B2+C2)</f>
+        <v>0.95522388059701491</v>
+      </c>
+      <c r="H2">
+        <f>(B2)/(B2+E2)</f>
+        <v>0.95522388059701491</v>
+      </c>
+      <c r="I2">
+        <f>2*((G2*H2)/(G2+H2))</f>
+        <v>0.95522388059701491</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <f>(B3+D3)/(B3+C3+D3+E3)</f>
+        <v>0.90909090909090906</v>
+      </c>
+      <c r="G3">
+        <f>(B3)/(B3+C3)</f>
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="H3">
+        <f>(B3)/(B3+E3)</f>
+        <v>0.93023255813953487</v>
+      </c>
+      <c r="I3">
+        <f>2*((G3*H3)/(G3+H3))</f>
+        <v>0.94117647058823517</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>